--- a/reports_pdf/brasil/risk-en/Cases/14-06-2020_para_report.xlsx
+++ b/reports_pdf/brasil/risk-en/Cases/14-06-2020_para_report.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="B1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,346 +413,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Belém</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16055</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.135702521083109</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4464</v>
-      </c>
-      <c r="H2" t="n">
-        <v>299.0463876951522</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5069.776054114997</v>
-      </c>
-      <c r="J2" t="n">
-        <v>339.6277364261811</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ananindeua</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3552</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.299369727841974</v>
-      </c>
-      <c r="G3" t="n">
-        <v>911</v>
-      </c>
-      <c r="H3" t="n">
-        <v>171.6930708370556</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1183.725822064039</v>
-      </c>
-      <c r="J3" t="n">
-        <v>223.0927787258977</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Santarém</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1507</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2260869565217391</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3836745161777148</v>
-      </c>
-      <c r="G4" t="n">
-        <v>520</v>
-      </c>
-      <c r="H4" t="n">
-        <v>170.7218579791129</v>
-      </c>
-      <c r="I4" t="n">
-        <v>199.5107484124117</v>
-      </c>
-      <c r="J4" t="n">
-        <v>65.50162626109666</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marabá</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2156</v>
-      </c>
-      <c r="D5" t="n">
-        <v>57</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.245398773006135</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.480853412550386</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1778</v>
-      </c>
-      <c r="H5" t="n">
-        <v>636.4798155712031</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4410.957367514587</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1579.013122479259</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parauapebas</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5658</v>
-      </c>
-      <c r="D6" t="n">
-        <v>181</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9933847850055126</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.227608454744599</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4230</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2030.988174175241</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5192.783763569655</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2493.258254103823</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Castanhal</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1219</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1658536585365854</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.282791882664377</v>
-      </c>
-      <c r="G7" t="n">
-        <v>541</v>
-      </c>
-      <c r="H7" t="n">
-        <v>269.4317032964296</v>
-      </c>
-      <c r="I7" t="n">
-        <v>693.9904085214279</v>
-      </c>
-      <c r="J7" t="n">
-        <v>345.6248019210968</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Abaetetuba</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2055</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.094745492510248</v>
-      </c>
-      <c r="G8" t="n">
-        <v>498</v>
-      </c>
-      <c r="H8" t="n">
-        <v>315.7934786744283</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1043.183255270103</v>
-      </c>
-      <c r="J8" t="n">
-        <v>661.5069660173898</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cametá</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2117</v>
-      </c>
-      <c r="D9" t="n">
-        <v>53</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5146198830409356</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.53632889473235</v>
-      </c>
-      <c r="G9" t="n">
-        <v>874</v>
-      </c>
-      <c r="H9" t="n">
-        <v>640.8094435075885</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1342.751453996074</v>
-      </c>
-      <c r="J9" t="n">
-        <v>984.494064078066</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Marituba</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>530</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.130343613212778</v>
-      </c>
-      <c r="G10" t="n">
-        <v>121</v>
-      </c>
-      <c r="H10" t="n">
-        <v>93.56562352595479</v>
-      </c>
-      <c r="I10" t="n">
-        <v>136.7715771987461</v>
-      </c>
-      <c r="J10" t="n">
-        <v>105.7613049688342</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Bragança</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1239</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.05747126436781609</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.070751551136203</v>
-      </c>
-      <c r="G11" t="n">
-        <v>541</v>
-      </c>
-      <c r="H11" t="n">
-        <v>427.884463285773</v>
-      </c>
-      <c r="I11" t="n">
-        <v>579.2765891646857</v>
-      </c>
-      <c r="J11" t="n">
-        <v>458.157952770323</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
